--- a/Tests.xlsx
+++ b/Tests.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="17235" windowHeight="24060"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="17235" windowHeight="24060" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Board Characteristics" sheetId="1" r:id="rId1"/>
+    <sheet name="Startup @ Frequencies" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="65">
   <si>
     <t>Vin</t>
   </si>
@@ -171,6 +171,49 @@
   <si>
     <t>Vibrating hot wires leaving main power supply
 Possibly stressed FETs</t>
+  </si>
+  <si>
+    <t>Unit tested</t>
+  </si>
+  <si>
+    <t>In</t>
+  </si>
+  <si>
+    <t>Vout</t>
+  </si>
+  <si>
+    <t>Iout</t>
+  </si>
+  <si>
+    <t>Frequency Out</t>
+  </si>
+  <si>
+    <t>Win</t>
+  </si>
+  <si>
+    <t>Wout</t>
+  </si>
+  <si>
+    <t>PF</t>
+  </si>
+  <si>
+    <t>Efficiency</t>
+  </si>
+  <si>
+    <t>V/Hz</t>
+  </si>
+  <si>
+    <t>Barely starting</t>
+  </si>
+  <si>
+    <t>Freezer</t>
+  </si>
+  <si>
+    <t>Rumbling</t>
+  </si>
+  <si>
+    <t>Subroutine
+Call time (uS)</t>
   </si>
 </sst>
 </file>
@@ -230,12 +273,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -245,6 +285,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -550,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,10 +630,10 @@
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3"/>
+      <c r="C1" s="5"/>
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
@@ -632,7 +684,7 @@
       <c r="C2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>12.5</v>
       </c>
       <c r="E2" s="2">
@@ -682,7 +734,7 @@
       <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>12.5</v>
       </c>
       <c r="E3" s="2">
@@ -732,7 +784,7 @@
       <c r="C4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>12.5</v>
       </c>
       <c r="E4" s="2">
@@ -741,10 +793,10 @@
       <c r="F4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>25</v>
       </c>
       <c r="I4" s="2">
@@ -782,7 +834,7 @@
       <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>12.5</v>
       </c>
       <c r="E5" s="2">
@@ -791,10 +843,10 @@
       <c r="F5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>36</v>
       </c>
       <c r="I5" s="2">
@@ -832,19 +884,19 @@
       <c r="C6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>12.5</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>14.5</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="4" t="s">
         <v>36</v>
       </c>
       <c r="I6" s="2">
@@ -882,19 +934,19 @@
       <c r="C7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>17.2</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>16.7</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="4" t="s">
         <v>36</v>
       </c>
       <c r="I7" s="2" t="s">
@@ -933,13 +985,500 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="6.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="4.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="6" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="8">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D2" s="8">
+        <v>2.1</v>
+      </c>
+      <c r="E2" s="6">
+        <f>D2*C2</f>
+        <v>8.61</v>
+      </c>
+      <c r="F2" s="6">
+        <v>42</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0.21479999999999999</v>
+      </c>
+      <c r="H2" s="6">
+        <f>G2*F2</f>
+        <v>9.0215999999999994</v>
+      </c>
+      <c r="I2" s="6">
+        <v>53</v>
+      </c>
+      <c r="J2" s="7">
+        <f>F2/I2</f>
+        <v>0.79245283018867929</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" s="6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>3</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="8">
+        <v>2.1</v>
+      </c>
+      <c r="D3" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="E3" s="6">
+        <f>D3*C3</f>
+        <v>2.94</v>
+      </c>
+      <c r="F3" s="6">
+        <v>18.8</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0.14829999999999999</v>
+      </c>
+      <c r="H3" s="6">
+        <f>G3*F3</f>
+        <v>2.7880400000000001</v>
+      </c>
+      <c r="I3" s="6">
+        <v>19</v>
+      </c>
+      <c r="J3" s="7">
+        <f>F3/I3</f>
+        <v>0.98947368421052639</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="N3" s="6">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1.7</v>
+      </c>
+      <c r="E4" s="6">
+        <f>D4*C4</f>
+        <v>2.72</v>
+      </c>
+      <c r="F4" s="6">
+        <v>12.8</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0.15989999999999999</v>
+      </c>
+      <c r="H4" s="6">
+        <f>G4*F4</f>
+        <v>2.0467200000000001</v>
+      </c>
+      <c r="I4" s="6">
+        <v>10</v>
+      </c>
+      <c r="J4" s="7">
+        <f>F4/I4</f>
+        <v>1.28</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="N4" s="6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="8">
+        <v>10.9</v>
+      </c>
+      <c r="D5" s="8">
+        <v>24.5</v>
+      </c>
+      <c r="E5" s="6">
+        <f>D5*C5</f>
+        <v>267.05</v>
+      </c>
+      <c r="F5" s="6">
+        <v>26</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="6">
+        <v>10</v>
+      </c>
+      <c r="J5" s="7">
+        <f>F5/I5</f>
+        <v>2.6</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="N5" s="6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="8">
+        <v>13.3</v>
+      </c>
+      <c r="D6" s="8">
+        <v>26.6</v>
+      </c>
+      <c r="E6" s="6">
+        <f>D6*C6</f>
+        <v>353.78000000000003</v>
+      </c>
+      <c r="F6" s="6">
+        <v>41.2</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="6">
+        <v>19</v>
+      </c>
+      <c r="J6" s="7">
+        <f>F6/I6</f>
+        <v>2.168421052631579</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="N6" s="6">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>3</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="8">
+        <v>13.3</v>
+      </c>
+      <c r="D7" s="8">
+        <v>26.6</v>
+      </c>
+      <c r="E7" s="6">
+        <f>D7*C7</f>
+        <v>353.78000000000003</v>
+      </c>
+      <c r="F7" s="6">
+        <v>41.2</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="6">
+        <v>19</v>
+      </c>
+      <c r="J7" s="7">
+        <f>F7/I7</f>
+        <v>2.168421052631579</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="N7" s="6">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>3</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="8">
+        <v>9.5</v>
+      </c>
+      <c r="D8" s="8">
+        <v>20.2</v>
+      </c>
+      <c r="E8" s="6">
+        <f>D8*C8</f>
+        <v>191.9</v>
+      </c>
+      <c r="F8" s="6">
+        <v>26.7</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="6">
+        <v>10</v>
+      </c>
+      <c r="J8" s="7">
+        <f>F8/I8</f>
+        <v>2.67</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="N8" s="6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>3</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="8">
+        <v>10</v>
+      </c>
+      <c r="D9" s="8">
+        <v>20.3</v>
+      </c>
+      <c r="E9" s="6">
+        <f>D9*C9</f>
+        <v>203</v>
+      </c>
+      <c r="F9" s="6">
+        <v>29.7</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="6">
+        <v>20</v>
+      </c>
+      <c r="J9" s="7">
+        <f>F9/I9</f>
+        <v>1.4849999999999999</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="N9" s="6">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
